--- a/biology/Botanique/Jean-Christophe_Heyland/Jean-Christophe_Heyland.xlsx
+++ b/biology/Botanique/Jean-Christophe_Heyland/Jean-Christophe_Heyland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Christophe Heyland, né Jean-Christophe Kumpfler  en 1791 à Francfort-sur-le-Main et mort le 29 août 1866 lors d'un voyage en Italie près de Gênes, est un illustrateur, aquarelliste et graveur suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baptisé Jean-Christophe Kumpfler, il est allé à Genève dans sa jeunesse comme apprenti coiffeur chez un oncle nommé Heyland. il fut désigné par ce nom par les habitants genevois et l'adopta définitivement. Il a montré un vif intérêt pour les arts graphiques. Il employait ses loisirs à l'étude du dessin et de la gravure. Après avoir passé quelques années à Londres, où il fut un créateur de costumes pour le théâtre, il revient en Suisse et s'installa à Genève.
 Devenu un citoyen de Genève en 1819, Heyland a été admis à la Société des Arts et de la Société suisse des sciences naturelles. 
